--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD178F-779A-4311-9046-358238EDE21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9957C-DFB0-4BDB-AF1D-4FF92B48912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>PPDMO</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +721,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -723,6 +732,9 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -731,6 +743,9 @@
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -739,6 +754,9 @@
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -747,6 +765,9 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -755,6 +776,9 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -763,6 +787,9 @@
       <c r="B9">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -771,6 +798,9 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -779,6 +809,9 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -787,6 +820,9 @@
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -795,6 +831,9 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -803,6 +842,9 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -811,6 +853,9 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -819,109 +864,151 @@
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9957C-DFB0-4BDB-AF1D-4FF92B48912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FE73D-5F64-4063-B1C3-5E16838FA8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,8 +160,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,14 +197,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -566,22 +590,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -654,64 +677,64 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
       <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
         <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -768,6 +791,7 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1012,13 +1036,28 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="A4:XFD1048576 H3:XFD3 A3:E3 A1:XFD2">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:V29">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="C4:V29 H3:V3 C3:E3 C2:D2">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:S2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1194,7 +1233,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1370,7 +1409,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1543,7 +1582,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1716,7 +1755,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FE73D-5F64-4063-B1C3-5E16838FA8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF2377-9A95-4CBE-9B6C-724AF70E7ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -160,16 +160,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,27 +192,12 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -260,6 +237,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -590,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +739,15 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -758,6 +759,15 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -769,6 +779,15 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -780,6 +799,15 @@
       <c r="C6" t="s">
         <v>36</v>
       </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -791,7 +819,15 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -803,6 +839,15 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -814,6 +859,15 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -825,6 +879,15 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -836,6 +899,15 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -847,6 +919,15 @@
       <c r="C12" t="s">
         <v>36</v>
       </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -858,6 +939,15 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -869,6 +959,15 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -880,6 +979,15 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -891,8 +999,17 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -902,8 +1019,17 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -913,8 +1039,17 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -924,8 +1059,17 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -935,8 +1079,17 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -946,8 +1099,17 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -957,8 +1119,17 @@
       <c r="C22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -968,8 +1139,17 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -979,8 +1159,17 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -990,8 +1179,17 @@
       <c r="C25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1001,8 +1199,17 @@
       <c r="C26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1012,8 +1219,17 @@
       <c r="C27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1023,8 +1239,17 @@
       <c r="C28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1034,30 +1259,39 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:XFD1048576 H3:XFD3 A3:E3 A1:XFD2">
+  <conditionalFormatting sqref="H3:XFD3 A1:XFD2 E4:XFD6 E3 A3:D6 A7:XFD1048576">
     <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:V29 H3:V3 C3:E3 C2:D2">
+  <conditionalFormatting sqref="H3:V3 E4:V6 E3 C2:D6 C7:V29">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1233,7 +1467,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1409,7 +1643,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1582,7 +1816,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1755,7 +1989,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF2377-9A95-4CBE-9B6C-724AF70E7ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A683A-CAF1-4B7E-B234-88DD62E0EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -192,7 +192,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +601,7 @@
     <col min="20" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -661,621 +663,1134 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H3:XFD3 A1:XFD2 E4:XFD6 E3 A3:D6 A7:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD2 E4:XFD6 E3 A3:D6 A7:XFD1048576 G3:XFD3">
     <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:V3 E4:V6 E3 C2:D6 C7:V29">
+  <conditionalFormatting sqref="E4:V6 E3 C2:D6 C7:V29 G3:V3">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A683A-CAF1-4B7E-B234-88DD62E0EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048A087-4402-4597-8E73-21B82F7CA735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+      <selection pane="topRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,9 @@
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -792,7 +794,9 @@
       <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -831,7 +835,9 @@
       <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -870,7 +876,9 @@
       <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -909,7 +917,9 @@
       <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -948,7 +958,9 @@
       <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -987,7 +999,9 @@
       <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1026,7 +1040,9 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1065,7 +1081,9 @@
       <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1104,7 +1122,9 @@
       <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1143,7 +1163,9 @@
       <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1182,7 +1204,9 @@
       <c r="G14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1221,7 +1245,9 @@
       <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1260,7 +1286,9 @@
       <c r="G16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1299,7 +1327,9 @@
       <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1338,7 +1368,9 @@
       <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1377,7 +1409,9 @@
       <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1416,7 +1450,9 @@
       <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1455,7 +1491,9 @@
       <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1494,7 +1532,9 @@
       <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1533,7 +1573,9 @@
       <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1572,7 +1614,9 @@
       <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1611,7 +1655,9 @@
       <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1650,7 +1696,9 @@
       <c r="G26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1689,7 +1737,9 @@
       <c r="G27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1728,7 +1778,9 @@
       <c r="G28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1767,7 +1819,9 @@
       <c r="G29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048A087-4402-4597-8E73-21B82F7CA735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9BC37-9C87-46EE-900B-D6C9B5273B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H29" sqref="H29"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1574,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9BC37-9C87-46EE-900B-D6C9B5273B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC21FC-BDD4-4B3D-ADF3-7C7A9C02F1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PPDMO" sheetId="11" r:id="rId3"/>
     <sheet name="RMS" sheetId="12" r:id="rId4"/>
     <sheet name="TS" sheetId="13" r:id="rId5"/>
+    <sheet name="AtividadeRMS1" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="54">
   <si>
     <t>Aluno</t>
   </si>
@@ -154,14 +155,78 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>Padaria</t>
+  </si>
+  <si>
+    <t>Loja Cookies</t>
+  </si>
+  <si>
+    <t>Loja de Roupas</t>
+  </si>
+  <si>
+    <t>Posto de Gasolina</t>
+  </si>
+  <si>
+    <t>Lojinha ChingLing</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Livraria</t>
+  </si>
+  <si>
+    <t>Salão de Beleza</t>
+  </si>
+  <si>
+    <t>Agência de viagens</t>
+  </si>
+  <si>
+    <t>Pet Shop</t>
+  </si>
+  <si>
+    <t>Locação de Carros</t>
+  </si>
+  <si>
+    <t>Hotel ou Pousada</t>
+  </si>
+  <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Empreendimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,17 +254,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -582,9 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +834,9 @@
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -797,7 +877,9 @@
       <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -838,7 +920,9 @@
       <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -879,7 +963,9 @@
       <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -920,7 +1006,9 @@
       <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -961,7 +1049,9 @@
       <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1002,7 +1092,9 @@
       <c r="H9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1043,7 +1135,9 @@
       <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1084,7 +1178,9 @@
       <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1125,7 +1221,9 @@
       <c r="H12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1166,7 +1264,9 @@
       <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1207,7 +1307,9 @@
       <c r="H14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1248,7 +1350,9 @@
       <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1289,7 +1393,9 @@
       <c r="H16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1330,7 +1436,9 @@
       <c r="H17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1371,7 +1479,9 @@
       <c r="H18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1412,7 +1522,9 @@
       <c r="H19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1453,7 +1565,9 @@
       <c r="H20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1494,7 +1608,9 @@
       <c r="H21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1535,7 +1651,9 @@
       <c r="H22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1576,7 +1694,9 @@
       <c r="H23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1617,7 +1737,9 @@
       <c r="H24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1658,7 +1780,9 @@
       <c r="H25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1699,7 +1823,9 @@
       <c r="H26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1740,7 +1866,9 @@
       <c r="H27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1781,7 +1909,9 @@
       <c r="H28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1822,7 +1952,9 @@
       <c r="H29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1840,27 +1972,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD2 E4:XFD6 E3 A3:D6 A7:XFD1048576 G3:XFD3">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:V6 E3 C2:D6 C7:V29 G3:V3">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N2">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1871,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +2014,7 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1898,145 +2030,179 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2212,7 +2378,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2385,7 +2551,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2558,11 +2724,263 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6123B4E3-70B9-4792-B0D0-FE2906EEF780}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+    <sortCondition ref="B1:B28"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:A28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC21FC-BDD4-4B3D-ADF3-7C7A9C02F1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90631B3C-2C77-43F3-8827-32542E6EA169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Empreendimento</t>
+  </si>
+  <si>
+    <t>Orçamento</t>
   </si>
 </sst>
 </file>
@@ -254,14 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2087,7 +2089,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>4</v>
       </c>
     </row>
@@ -2735,252 +2737,257 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6123B4E3-70B9-4792-B0D0-FE2906EEF780}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>2200</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>1600</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1900</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>1800</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>1500</v>
+      </c>
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>1900</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>2100</v>
+      </c>
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1900</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>1500</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1700</v>
+      </c>
+      <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
-    <sortCondition ref="B1:B28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A28">
+  <conditionalFormatting sqref="C2:C28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90631B3C-2C77-43F3-8827-32542E6EA169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B630162-E520-4AB1-BB97-ECE0806DB237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -662,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A29"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,8 +839,12 @@
       <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -882,8 +886,12 @@
       <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -925,8 +933,12 @@
       <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -968,8 +980,12 @@
       <c r="I6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1011,8 +1027,12 @@
       <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1054,8 +1074,12 @@
       <c r="I8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1097,8 +1121,12 @@
       <c r="I9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1140,8 +1168,12 @@
       <c r="I10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1183,8 +1215,12 @@
       <c r="I11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1226,8 +1262,12 @@
       <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1269,8 +1309,12 @@
       <c r="I13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1312,8 +1356,12 @@
       <c r="I14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1355,8 +1403,12 @@
       <c r="I15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1398,8 +1450,12 @@
       <c r="I16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1441,8 +1497,12 @@
       <c r="I17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1484,8 +1544,12 @@
       <c r="I18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1527,8 +1591,12 @@
       <c r="I19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1570,8 +1638,12 @@
       <c r="I20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1613,8 +1685,12 @@
       <c r="I21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1656,8 +1732,12 @@
       <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1699,8 +1779,12 @@
       <c r="I23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1742,8 +1826,12 @@
       <c r="I24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1785,8 +1873,12 @@
       <c r="I25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1828,8 +1920,12 @@
       <c r="I26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1871,8 +1967,12 @@
       <c r="I27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1914,8 +2014,12 @@
       <c r="I28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1957,8 +2061,12 @@
       <c r="I29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1973,12 +2081,12 @@
       <c r="W29" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E4:XFD6 E3 A3:D6 A7:XFD1048576 G3:XFD3">
+  <conditionalFormatting sqref="A1:XFD2 E4:I6 E3 A3:D6 G3:XFD3 A7:I14 J4:XFD14 A15:XFD1048576">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:V6 E3 C2:D6 C7:V29 G3:V3">
+  <conditionalFormatting sqref="E4:I6 E3 C2:D6 G3:V3 C7:I14 J4:V14 C15:V29">
     <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
@@ -2739,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6123B4E3-70B9-4792-B0D0-FE2906EEF780}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B630162-E520-4AB1-BB97-ECE0806DB237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2197A4A-2E18-4EFD-8E47-4CE3E54955F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="3165" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -662,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <selection pane="topRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,9 @@
       <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -892,7 +894,9 @@
       <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -939,7 +943,9 @@
       <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -986,7 +992,9 @@
       <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1033,7 +1041,9 @@
       <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1080,7 +1090,9 @@
       <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1127,7 +1139,9 @@
       <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1174,7 +1188,9 @@
       <c r="K10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1221,7 +1237,9 @@
       <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1268,7 +1286,9 @@
       <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1315,7 +1335,9 @@
       <c r="K13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1362,7 +1384,9 @@
       <c r="K14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1409,7 +1433,9 @@
       <c r="K15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1456,7 +1482,9 @@
       <c r="K16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1503,7 +1531,9 @@
       <c r="K17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1550,7 +1580,9 @@
       <c r="K18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1597,7 +1629,9 @@
       <c r="K19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1644,7 +1678,9 @@
       <c r="K20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1691,7 +1727,9 @@
       <c r="K21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1738,7 +1776,9 @@
       <c r="K22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1785,7 +1825,9 @@
       <c r="K23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1832,7 +1874,9 @@
       <c r="K24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1879,7 +1923,9 @@
       <c r="K25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1926,7 +1972,9 @@
       <c r="K26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1973,7 +2021,9 @@
       <c r="K27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2020,7 +2070,9 @@
       <c r="K28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2067,7 +2119,9 @@
       <c r="K29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2197A4A-2E18-4EFD-8E47-4CE3E54955F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5996E-83F2-4C05-B589-7FD8B0DABDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="3165" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -662,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S22" sqref="S22"/>
+      <selection pane="topRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,9 @@
       <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -897,7 +899,9 @@
       <c r="L4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -946,7 +950,9 @@
       <c r="L5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -995,7 +1001,9 @@
       <c r="L6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1044,7 +1052,9 @@
       <c r="L7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1093,7 +1103,9 @@
       <c r="L8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1142,7 +1154,9 @@
       <c r="L9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1191,7 +1205,9 @@
       <c r="L10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1240,7 +1256,9 @@
       <c r="L11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1289,7 +1307,9 @@
       <c r="L12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1338,7 +1358,9 @@
       <c r="L13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1387,7 +1409,9 @@
       <c r="L14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1436,7 +1460,9 @@
       <c r="L15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -1485,7 +1511,9 @@
       <c r="L16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1534,7 +1562,9 @@
       <c r="L17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1583,7 +1613,9 @@
       <c r="L18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -1632,7 +1664,9 @@
       <c r="L19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1681,7 +1715,9 @@
       <c r="L20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1730,7 +1766,9 @@
       <c r="L21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1779,7 +1817,9 @@
       <c r="L22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1828,7 +1868,9 @@
       <c r="L23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1877,7 +1919,9 @@
       <c r="L24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1926,7 +1970,9 @@
       <c r="L25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1975,7 +2021,9 @@
       <c r="L26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2024,7 +2072,9 @@
       <c r="L27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2073,7 +2123,9 @@
       <c r="L28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2122,7 +2174,9 @@
       <c r="L29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5996E-83F2-4C05-B589-7FD8B0DABDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D6923-2B8A-43EC-9C9C-42AEDD841C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="M24"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D6923-2B8A-43EC-9C9C-42AEDD841C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E42466-2F46-4839-85DB-B639F8DD476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,6 +265,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
     </sheetView>
@@ -2223,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,6 +2290,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2333,6 +2337,9 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E42466-2F46-4839-85DB-B639F8DD476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C444734C-9F7A-44F6-8AD1-63D114729CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,7 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="topRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +851,9 @@
       <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -903,7 +904,9 @@
       <c r="M4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -954,7 +957,9 @@
       <c r="M5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1005,7 +1010,9 @@
       <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1056,7 +1063,9 @@
       <c r="M7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1107,7 +1116,9 @@
       <c r="M8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1158,7 +1169,9 @@
       <c r="M9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1209,7 +1222,9 @@
       <c r="M10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1260,7 +1275,9 @@
       <c r="M11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1311,7 +1328,9 @@
       <c r="M12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1362,7 +1381,9 @@
       <c r="M13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1413,7 +1434,9 @@
       <c r="M14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1464,7 +1487,9 @@
       <c r="M15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1515,7 +1540,9 @@
       <c r="M16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1566,7 +1593,9 @@
       <c r="M17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1617,7 +1646,9 @@
       <c r="M18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1668,7 +1699,9 @@
       <c r="M19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1719,7 +1752,9 @@
       <c r="M20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1770,7 +1805,9 @@
       <c r="M21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1821,7 +1858,9 @@
       <c r="M22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1872,7 +1911,9 @@
       <c r="M23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1923,7 +1964,9 @@
       <c r="M24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1974,7 +2017,9 @@
       <c r="M25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2025,7 +2070,9 @@
       <c r="M26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2076,7 +2123,9 @@
       <c r="M27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2127,7 +2176,9 @@
       <c r="M28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2178,7 +2229,9 @@
       <c r="M29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2224,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2BA7-F0E1-4D33-9F65-3FC214A56AF1}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2290,7 +2343,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>2</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C444734C-9F7A-44F6-8AD1-63D114729CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F395C554-5145-483E-8BAB-3795EBA079D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N25" sqref="N25"/>
+      <selection pane="topRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,9 @@
       <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -907,7 +909,9 @@
       <c r="N4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -960,7 +964,9 @@
       <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1013,7 +1019,9 @@
       <c r="N6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1066,7 +1074,9 @@
       <c r="N7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1119,7 +1129,9 @@
       <c r="N8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1172,7 +1184,9 @@
       <c r="N9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1225,7 +1239,9 @@
       <c r="N10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1278,7 +1294,9 @@
       <c r="N11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1331,7 +1349,9 @@
       <c r="N12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1384,7 +1404,9 @@
       <c r="N13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1437,7 +1459,9 @@
       <c r="N14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1490,7 +1514,9 @@
       <c r="N15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1543,7 +1569,9 @@
       <c r="N16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1596,7 +1624,9 @@
       <c r="N17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1649,7 +1679,9 @@
       <c r="N18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1702,7 +1734,9 @@
       <c r="N19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1755,7 +1789,9 @@
       <c r="N20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1808,7 +1844,9 @@
       <c r="N21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1861,7 +1899,9 @@
       <c r="N22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1914,7 +1954,9 @@
       <c r="N23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1967,7 +2009,9 @@
       <c r="N24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -2020,7 +2064,9 @@
       <c r="N25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2073,7 +2119,9 @@
       <c r="N26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2126,7 +2174,9 @@
       <c r="N27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2179,7 +2229,9 @@
       <c r="N28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -2232,7 +2284,9 @@
       <c r="N29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F395C554-5145-483E-8BAB-3795EBA079D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859B4300-E71A-4B9A-9BC0-276B0BCEC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O20" sqref="O20"/>
+      <selection pane="topRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,9 @@
       <c r="O3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -912,7 +914,9 @@
       <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -967,7 +971,9 @@
       <c r="O5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1022,7 +1028,9 @@
       <c r="O6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1077,7 +1085,9 @@
       <c r="O7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1132,7 +1142,9 @@
       <c r="O8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1187,7 +1199,9 @@
       <c r="O9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1242,7 +1256,9 @@
       <c r="O10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1297,7 +1313,9 @@
       <c r="O11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1352,7 +1370,9 @@
       <c r="O12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1407,7 +1427,9 @@
       <c r="O13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1462,7 +1484,9 @@
       <c r="O14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1517,7 +1541,9 @@
       <c r="O15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1572,7 +1598,9 @@
       <c r="O16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1627,7 +1655,9 @@
       <c r="O17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1682,7 +1712,9 @@
       <c r="O18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1737,7 +1769,9 @@
       <c r="O19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1792,7 +1826,9 @@
       <c r="O20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1847,7 +1883,9 @@
       <c r="O21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1902,7 +1940,9 @@
       <c r="O22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1957,7 +1997,9 @@
       <c r="O23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -2012,7 +2054,9 @@
       <c r="O24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -2067,7 +2111,9 @@
       <c r="O25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -2122,7 +2168,9 @@
       <c r="O26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2177,7 +2225,9 @@
       <c r="O27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -2232,7 +2282,9 @@
       <c r="O28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -2287,7 +2339,9 @@
       <c r="O29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859B4300-E71A-4B9A-9BC0-276B0BCEC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B65D5-8653-4C53-8A31-ED3A7E5C0D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P22" sqref="P22"/>
+      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,9 @@
       <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -917,7 +919,9 @@
       <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -974,7 +978,9 @@
       <c r="P5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1031,7 +1037,9 @@
       <c r="P6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1088,7 +1096,9 @@
       <c r="P7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1145,7 +1155,9 @@
       <c r="P8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1202,7 +1214,9 @@
       <c r="P9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1259,7 +1273,9 @@
       <c r="P10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1316,7 +1332,9 @@
       <c r="P11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1373,7 +1391,9 @@
       <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1430,7 +1450,9 @@
       <c r="P13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1487,7 +1509,9 @@
       <c r="P14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1544,7 +1568,9 @@
       <c r="P15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1601,7 +1627,9 @@
       <c r="P16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1658,7 +1686,9 @@
       <c r="P17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1715,7 +1745,9 @@
       <c r="P18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1772,7 +1804,9 @@
       <c r="P19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1829,7 +1863,9 @@
       <c r="P20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -1886,7 +1922,9 @@
       <c r="P21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1943,7 +1981,9 @@
       <c r="P22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -2000,7 +2040,9 @@
       <c r="P23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -2057,7 +2099,9 @@
       <c r="P24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -2114,7 +2158,9 @@
       <c r="P25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -2171,7 +2217,9 @@
       <c r="P26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -2228,7 +2276,9 @@
       <c r="P27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -2285,7 +2335,9 @@
       <c r="P28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -2342,7 +2394,9 @@
       <c r="P29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B65D5-8653-4C53-8A31-ED3A7E5C0D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA0D080-8383-449F-B746-E9A1CC29E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="topRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,9 @@
       <c r="Q3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -922,7 +924,9 @@
       <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -981,7 +985,9 @@
       <c r="Q5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1040,7 +1046,9 @@
       <c r="Q6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1099,7 +1107,9 @@
       <c r="Q7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1158,7 +1168,9 @@
       <c r="Q8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1217,7 +1229,9 @@
       <c r="Q9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1276,7 +1290,9 @@
       <c r="Q10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1335,7 +1351,9 @@
       <c r="Q11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1394,7 +1412,9 @@
       <c r="Q12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1453,7 +1473,9 @@
       <c r="Q13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1512,7 +1534,9 @@
       <c r="Q14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1571,7 +1595,9 @@
       <c r="Q15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1630,7 +1656,9 @@
       <c r="Q16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1689,7 +1717,9 @@
       <c r="Q17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1748,7 +1778,9 @@
       <c r="Q18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1807,7 +1839,9 @@
       <c r="Q19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1866,7 +1900,9 @@
       <c r="Q20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1925,7 +1961,9 @@
       <c r="Q21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1984,7 +2022,9 @@
       <c r="Q22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2043,7 +2083,9 @@
       <c r="Q23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2102,7 +2144,9 @@
       <c r="Q24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2161,7 +2205,9 @@
       <c r="Q25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2220,7 +2266,9 @@
       <c r="Q26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2279,7 +2327,9 @@
       <c r="Q27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2338,7 +2388,9 @@
       <c r="Q28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2397,7 +2449,9 @@
       <c r="Q29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA0D080-8383-449F-B746-E9A1CC29E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD29901-6F9A-43E5-9A26-541F82470254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W10" sqref="W10"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,9 @@
       <c r="R3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -927,7 +929,9 @@
       <c r="R4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -988,7 +992,9 @@
       <c r="R5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1049,7 +1055,9 @@
       <c r="R6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1110,7 +1118,9 @@
       <c r="R7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1171,7 +1181,9 @@
       <c r="R8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1232,7 +1244,9 @@
       <c r="R9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1293,7 +1307,9 @@
       <c r="R10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1354,7 +1370,9 @@
       <c r="R11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1415,7 +1433,9 @@
       <c r="R12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1476,7 +1496,9 @@
       <c r="R13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1537,7 +1559,9 @@
       <c r="R14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1598,7 +1622,9 @@
       <c r="R15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="2"/>
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1659,7 +1685,9 @@
       <c r="R16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1720,7 +1748,9 @@
       <c r="R17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1781,7 +1811,9 @@
       <c r="R18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1842,7 +1874,9 @@
       <c r="R19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1903,7 +1937,9 @@
       <c r="R20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -1964,7 +2000,9 @@
       <c r="R21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -2025,7 +2063,9 @@
       <c r="R22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -2086,7 +2126,9 @@
       <c r="R23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -2147,7 +2189,9 @@
       <c r="R24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -2208,7 +2252,9 @@
       <c r="R25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -2269,7 +2315,9 @@
       <c r="R26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -2330,7 +2378,9 @@
       <c r="R27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -2391,7 +2441,9 @@
       <c r="R28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -2452,7 +2504,9 @@
       <c r="R29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S29" s="2"/>
+      <c r="S29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD29901-6F9A-43E5-9A26-541F82470254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E41E46-82E5-4E91-971A-C23706744106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S5" sqref="S5"/>
+      <selection pane="topRight" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,9 @@
       <c r="S3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -932,7 +934,9 @@
       <c r="S4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -995,7 +999,9 @@
       <c r="S5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1058,7 +1064,9 @@
       <c r="S6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1121,7 +1129,9 @@
       <c r="S7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1184,7 +1194,9 @@
       <c r="S8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1247,7 +1259,9 @@
       <c r="S9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1310,7 +1324,9 @@
       <c r="S10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -1373,7 +1389,9 @@
       <c r="S11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -1436,7 +1454,9 @@
       <c r="S12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1499,7 +1519,9 @@
       <c r="S13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="2"/>
+      <c r="T13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -1562,7 +1584,9 @@
       <c r="S14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="2"/>
+      <c r="T14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -1625,7 +1649,9 @@
       <c r="S15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="2"/>
+      <c r="T15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -1688,7 +1714,9 @@
       <c r="S16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -1751,7 +1779,9 @@
       <c r="S17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="2"/>
+      <c r="T17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -1814,7 +1844,9 @@
       <c r="S18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="2"/>
+      <c r="T18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -1877,7 +1909,9 @@
       <c r="S19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="2"/>
+      <c r="T19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -1940,7 +1974,9 @@
       <c r="S20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -2003,7 +2039,9 @@
       <c r="S21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="2"/>
+      <c r="T21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -2066,7 +2104,9 @@
       <c r="S22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -2129,7 +2169,9 @@
       <c r="S23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="2"/>
+      <c r="T23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -2192,7 +2234,9 @@
       <c r="S24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="2"/>
+      <c r="T24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -2255,7 +2299,9 @@
       <c r="S25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T25" s="2"/>
+      <c r="T25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -2318,7 +2364,9 @@
       <c r="S26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T26" s="2"/>
+      <c r="T26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -2381,7 +2429,9 @@
       <c r="S27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T27" s="2"/>
+      <c r="T27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -2444,7 +2494,9 @@
       <c r="S28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -2507,7 +2559,9 @@
       <c r="S29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T29" s="2"/>
+      <c r="T29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E41E46-82E5-4E91-971A-C23706744106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1660C93-F4E0-49C9-8783-5D4A2E89E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -663,8 +663,8 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T30" sqref="T30"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,9 @@
       <c r="T3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
@@ -937,7 +939,9 @@
       <c r="T4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
@@ -1002,7 +1006,9 @@
       <c r="T5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
@@ -1067,7 +1073,9 @@
       <c r="T6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
@@ -1130,9 +1138,11 @@
         <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
@@ -1197,7 +1207,9 @@
       <c r="T8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
@@ -1262,7 +1274,9 @@
       <c r="T9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
@@ -1327,7 +1341,9 @@
       <c r="T10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
@@ -1392,7 +1408,9 @@
       <c r="T11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
@@ -1457,7 +1475,9 @@
       <c r="T12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
@@ -1522,7 +1542,9 @@
       <c r="T13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
@@ -1587,7 +1609,9 @@
       <c r="T14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="2"/>
+      <c r="U14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
@@ -1652,7 +1676,9 @@
       <c r="T15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
@@ -1717,7 +1743,9 @@
       <c r="T16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="2"/>
+      <c r="U16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
@@ -1782,7 +1810,9 @@
       <c r="T17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="2"/>
+      <c r="U17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
@@ -1847,7 +1877,9 @@
       <c r="T18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
@@ -1912,7 +1944,9 @@
       <c r="T19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
@@ -1977,7 +2011,9 @@
       <c r="T20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
@@ -2042,7 +2078,9 @@
       <c r="T21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="2"/>
+      <c r="U21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
@@ -2107,7 +2145,9 @@
       <c r="T22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="2"/>
+      <c r="U22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
@@ -2172,7 +2212,9 @@
       <c r="T23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="2"/>
+      <c r="U23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
@@ -2237,7 +2279,9 @@
       <c r="T24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="2"/>
+      <c r="U24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
@@ -2302,7 +2346,9 @@
       <c r="T25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U25" s="2"/>
+      <c r="U25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
@@ -2367,7 +2413,9 @@
       <c r="T26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U26" s="2"/>
+      <c r="U26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
@@ -2432,7 +2480,9 @@
       <c r="T27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U27" s="2"/>
+      <c r="U27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
@@ -2495,9 +2545,11 @@
         <v>36</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U28" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
@@ -2562,7 +2614,9 @@
       <c r="T29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="2"/>
+      <c r="U29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1660C93-F4E0-49C9-8783-5D4A2E89E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439DFF4-FB76-4DF2-8022-BE73C0FDC8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="55">
   <si>
     <t>Aluno</t>
   </si>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U19" sqref="U19"/>
+      <selection pane="topRight" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,9 @@
       <c r="U3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -942,7 +944,9 @@
       <c r="U4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1009,7 +1013,9 @@
       <c r="U5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1076,7 +1082,9 @@
       <c r="U6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1143,7 +1151,9 @@
       <c r="U7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1210,7 +1220,9 @@
       <c r="U8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1277,7 +1289,9 @@
       <c r="U9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1344,7 +1358,9 @@
       <c r="U10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1411,7 +1427,9 @@
       <c r="U11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1478,7 +1496,9 @@
       <c r="U12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1545,7 +1565,9 @@
       <c r="U13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1612,7 +1634,9 @@
       <c r="U14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1679,7 +1703,9 @@
       <c r="U15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V15" s="2"/>
+      <c r="V15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1746,7 +1772,9 @@
       <c r="U16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1813,7 +1841,9 @@
       <c r="U17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1880,7 +1910,9 @@
       <c r="U18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1947,7 +1979,9 @@
       <c r="U19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="2"/>
+      <c r="V19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2014,7 +2048,9 @@
       <c r="U20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2081,7 +2117,9 @@
       <c r="U21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2148,7 +2186,9 @@
       <c r="U22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2215,7 +2255,9 @@
       <c r="U23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="2"/>
+      <c r="V23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2282,7 +2324,9 @@
       <c r="U24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2349,7 +2393,9 @@
       <c r="U25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="2"/>
+      <c r="V25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2416,7 +2462,9 @@
       <c r="U26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2483,7 +2531,9 @@
       <c r="U27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="2"/>
+      <c r="V27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2550,7 +2600,9 @@
       <c r="U28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2617,7 +2669,9 @@
       <c r="U29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V29" s="2"/>
+      <c r="V29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="W29" s="2"/>
     </row>
   </sheetData>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439DFF4-FB76-4DF2-8022-BE73C0FDC8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8F368-C20D-46C8-B9A4-98AC743E5BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V29" sqref="V29"/>
+      <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
         <v>37</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W15" s="2"/>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8F368-C20D-46C8-B9A4-98AC743E5BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11AD80E-8385-4385-B395-787106CC4C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Orçamento</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,11 +268,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -319,6 +325,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -660,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,9 +700,15 @@
     <col min="15" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.7109375" style="2" customWidth="1"/>
+    <col min="28" max="29" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -742,8 +769,53 @@
       <c r="V1" s="1">
         <v>44974</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W1" s="5">
+        <v>51</v>
+      </c>
+      <c r="X1" s="5">
+        <v>44978</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>44979</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>44980</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>44981</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>44984</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>44985</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>44986</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>44987</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>44988</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44991</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44992</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44993</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>44994</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -810,8 +882,53 @@
       <c r="V2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -878,9 +995,23 @@
       <c r="V3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -947,9 +1078,23 @@
       <c r="V4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1016,9 +1161,23 @@
       <c r="V5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1085,9 +1244,23 @@
       <c r="V6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1154,9 +1327,23 @@
       <c r="V7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1223,9 +1410,23 @@
       <c r="V8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1292,9 +1493,23 @@
       <c r="V9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1361,9 +1576,23 @@
       <c r="V10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1430,9 +1659,23 @@
       <c r="V11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1499,9 +1742,23 @@
       <c r="V12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1568,9 +1825,23 @@
       <c r="V13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1637,9 +1908,23 @@
       <c r="V14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1706,9 +1991,23 @@
       <c r="V15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1775,9 +2074,23 @@
       <c r="V16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1844,9 +2157,23 @@
       <c r="V17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1913,9 +2240,23 @@
       <c r="V18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1982,9 +2323,23 @@
       <c r="V19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2051,9 +2406,23 @@
       <c r="V20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2120,9 +2489,23 @@
       <c r="V21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2189,9 +2572,23 @@
       <c r="V22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2258,9 +2655,23 @@
       <c r="V23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2327,9 +2738,23 @@
       <c r="V24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="2"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2396,9 +2821,23 @@
       <c r="V25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="2"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2465,9 +2904,23 @@
       <c r="V26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W26" s="2"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2534,9 +2987,23 @@
       <c r="V27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W27" s="2"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2603,9 +3070,23 @@
       <c r="V28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W28" s="2"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2672,30 +3153,59 @@
       <c r="V29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W29" s="2"/>
+      <c r="W29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E4:I6 E3 A3:D6 G3:XFD3 A7:I14 J4:XFD14 A15:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 X3:XFD29 W4:W29">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:I6 E3 C2:D6 G3:V3 C7:I14 J4:V14 C15:V29">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:S2">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11AD80E-8385-4385-B395-787106CC4C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3715393D-E5EC-44D1-8F68-4733D0ED1665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,6 +269,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,9 +686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,6 +1013,9 @@
       <c r="AA3" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1093,6 +1099,9 @@
       <c r="AA4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1176,6 +1185,9 @@
       <c r="AA5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AB5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1259,6 +1271,9 @@
       <c r="AA6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1342,6 +1357,9 @@
       <c r="AA7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1425,6 +1443,9 @@
       <c r="AA8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1508,6 +1529,9 @@
       <c r="AA9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1591,6 +1615,9 @@
       <c r="AA10" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AB10" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1674,6 +1701,9 @@
       <c r="AA11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1757,6 +1787,9 @@
       <c r="AA12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1840,6 +1873,9 @@
       <c r="AA13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AB13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1923,6 +1959,9 @@
       <c r="AA14" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AB14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2006,6 +2045,9 @@
       <c r="AA15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AB15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2089,8 +2131,11 @@
       <c r="AA16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2172,8 +2217,11 @@
       <c r="AA17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2255,8 +2303,11 @@
       <c r="AA18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2338,8 +2389,11 @@
       <c r="AA19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="AA20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2504,8 +2561,11 @@
       <c r="AA21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2587,8 +2647,11 @@
       <c r="AA22" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2670,8 +2733,11 @@
       <c r="AA23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2753,8 +2819,11 @@
       <c r="AA24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2836,8 +2905,11 @@
       <c r="AA25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2919,8 +2991,11 @@
       <c r="AA26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3002,8 +3077,11 @@
       <c r="AA27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3085,8 +3163,11 @@
       <c r="AA28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3166,6 +3247,9 @@
         <v>36</v>
       </c>
       <c r="AA29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3220,7 +3304,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,6 +3336,9 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3265,21 +3352,33 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3293,12 +3392,18 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3320,6 +3425,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3349,6 +3457,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3362,16 +3473,25 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3392,6 +3512,9 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3609,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE0EAD6-6256-40A7-B315-10C2E7E1019B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3620,7 +3743,7 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3633,138 +3756,159 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3958,7 +4102,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C27:C28"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3715393D-E5EC-44D1-8F68-4733D0ED1665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6829C-B5AB-4842-8BEB-025DEBA452BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -686,9 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB29" sqref="AB29"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE0EAD6-6256-40A7-B315-10C2E7E1019B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,26 +3777,41 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3813,64 +3825,97 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3884,33 +3929,48 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3929,7 +3989,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,7 +4162,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,9 +4244,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\senai2023\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6829C-B5AB-4842-8BEB-025DEBA452BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387B313-D166-46D9-ABC2-C5E434F298D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -268,7 +268,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1013,9 @@
       <c r="AB3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1099,6 +1102,9 @@
       <c r="AB4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1185,6 +1191,9 @@
       <c r="AB5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AC5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1271,6 +1280,9 @@
       <c r="AB6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1357,6 +1369,9 @@
       <c r="AB7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1443,6 +1458,9 @@
       <c r="AB8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1529,6 +1547,9 @@
       <c r="AB9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1615,6 +1636,9 @@
       <c r="AB10" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AC10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1701,6 +1725,9 @@
       <c r="AB11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1787,6 +1814,9 @@
       <c r="AB12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1873,6 +1903,9 @@
       <c r="AB13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1959,6 +1992,9 @@
       <c r="AB14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AC14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2045,6 +2081,9 @@
       <c r="AB15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AC15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2131,8 +2170,11 @@
       <c r="AB16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2217,8 +2259,11 @@
       <c r="AB17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2303,8 +2348,11 @@
       <c r="AB18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2389,8 +2437,11 @@
       <c r="AB19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2475,8 +2526,11 @@
       <c r="AB20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2561,8 +2615,11 @@
       <c r="AB21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2647,8 +2704,11 @@
       <c r="AB22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2733,8 +2793,11 @@
       <c r="AB23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2819,8 +2882,11 @@
       <c r="AB24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2905,8 +2971,11 @@
       <c r="AB25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2991,8 +3060,11 @@
       <c r="AB26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3077,8 +3149,11 @@
       <c r="AB27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3163,8 +3238,11 @@
       <c r="AB28" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3247,6 +3325,9 @@
         <v>36</v>
       </c>
       <c r="AB29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3732,7 +3813,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,7 +4243,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387B313-D166-46D9-ABC2-C5E434F298D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABBF74-4022-42C3-9DEB-957B59E3855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -257,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,9 +258,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1005,9 @@
       <c r="AC3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1105,6 +1097,9 @@
       <c r="AC4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1194,6 +1189,9 @@
       <c r="AC5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1283,6 +1281,9 @@
       <c r="AC6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1372,6 +1373,9 @@
       <c r="AC7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1461,6 +1465,9 @@
       <c r="AC8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1550,6 +1557,9 @@
       <c r="AC9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1639,6 +1649,9 @@
       <c r="AC10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1728,6 +1741,9 @@
       <c r="AC11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1817,6 +1833,9 @@
       <c r="AC12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1906,6 +1925,9 @@
       <c r="AC13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1995,6 +2017,9 @@
       <c r="AC14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2084,6 +2109,9 @@
       <c r="AC15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2173,8 +2201,11 @@
       <c r="AC16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2262,8 +2293,11 @@
       <c r="AC17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2351,8 +2385,11 @@
       <c r="AC18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2477,11 @@
       <c r="AC19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2529,8 +2569,11 @@
       <c r="AC20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2618,8 +2661,11 @@
       <c r="AC21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2707,8 +2753,11 @@
       <c r="AC22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2796,8 +2845,11 @@
       <c r="AC23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2885,8 +2937,11 @@
       <c r="AC24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2974,8 +3029,11 @@
       <c r="AC25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3063,8 +3121,11 @@
       <c r="AC26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3152,8 +3213,11 @@
       <c r="AC27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3241,8 +3305,11 @@
       <c r="AC28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3324,15 +3391,18 @@
       <c r="AA29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB29" s="6" t="s">
+      <c r="AB29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 X3:XFD29 W4:W29">
+  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 W4:W29 X3:XFD29">
     <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABBF74-4022-42C3-9DEB-957B59E3855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710A77A-03A4-4053-A604-9AE795DD0EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +270,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -670,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,44 +3412,62 @@
         <v>36</v>
       </c>
     </row>
+    <row r="35" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 W4:W29 X3:XFD29">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A1:XFD2 A15:V29 W4:W29 X3:XFD29 A30:XFD1048576">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:I6 E3 C2:D6 G3:V3 C7:I14 J4:V14 C15:V29">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
     <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="AE36:AF36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3693,7 +3722,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3869,7 +3898,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4126,7 +4155,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4299,7 +4328,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4554,7 +4583,7 @@
     <sortCondition ref="A1:A28"/>
   </sortState>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387B313-D166-46D9-ABC2-C5E434F298D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2341310-19AE-4609-B6C1-F8620166D063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,9 +266,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,8 +681,8 @@
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1013,15 @@
       <c r="AC3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1105,6 +1111,15 @@
       <c r="AC4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1194,6 +1209,15 @@
       <c r="AC5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1283,6 +1307,15 @@
       <c r="AC6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1372,6 +1405,15 @@
       <c r="AC7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1461,6 +1503,15 @@
       <c r="AC8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1550,6 +1601,15 @@
       <c r="AC9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1639,6 +1699,15 @@
       <c r="AC10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1728,6 +1797,15 @@
       <c r="AC11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1817,6 +1895,15 @@
       <c r="AC12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1906,6 +1993,15 @@
       <c r="AC13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1995,6 +2091,15 @@
       <c r="AC14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2084,6 +2189,15 @@
       <c r="AC15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2173,8 +2287,17 @@
       <c r="AC16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2262,8 +2385,17 @@
       <c r="AC17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2351,8 +2483,17 @@
       <c r="AC18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2581,17 @@
       <c r="AC19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2529,8 +2679,17 @@
       <c r="AC20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2618,8 +2777,17 @@
       <c r="AC21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2707,8 +2875,17 @@
       <c r="AC22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2796,8 +2973,17 @@
       <c r="AC23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2885,8 +3071,17 @@
       <c r="AC24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2974,8 +3169,17 @@
       <c r="AC25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3063,8 +3267,17 @@
       <c r="AC26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3152,8 +3365,17 @@
       <c r="AC27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3241,8 +3463,17 @@
       <c r="AC28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3324,15 +3555,24 @@
       <c r="AA29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB29" s="6" t="s">
+      <c r="AB29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AD29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 X3:XFD29 W4:W29">
+  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 W4:W29 X3:XFD29">
     <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2341310-19AE-4609-B6C1-F8620166D063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F30C9-D391-419D-883D-4FA302DF445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -682,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF30" sqref="AF30"/>
+      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1022,9 @@
       <c r="AF3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1120,6 +1123,9 @@
       <c r="AF4" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AG4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1218,6 +1224,9 @@
       <c r="AF5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1316,6 +1325,9 @@
       <c r="AF6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1414,6 +1426,9 @@
       <c r="AF7" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AG7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1512,6 +1527,9 @@
       <c r="AF8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AG8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1610,6 +1628,9 @@
       <c r="AF9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1708,6 +1729,9 @@
       <c r="AF10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1806,6 +1830,9 @@
       <c r="AF11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1904,6 +1931,9 @@
       <c r="AF12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2002,6 +2032,9 @@
       <c r="AF13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2100,6 +2133,9 @@
       <c r="AF14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AG14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2198,6 +2234,9 @@
       <c r="AF15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AG15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2296,8 +2335,11 @@
       <c r="AF16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2394,8 +2436,11 @@
       <c r="AF17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2492,8 +2537,11 @@
       <c r="AF18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2638,11 @@
       <c r="AF19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2688,8 +2739,11 @@
       <c r="AF20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2786,8 +2840,11 @@
       <c r="AF21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2884,8 +2941,11 @@
       <c r="AF22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2982,8 +3042,11 @@
       <c r="AF23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3080,8 +3143,11 @@
       <c r="AF24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3178,8 +3244,11 @@
       <c r="AF25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3276,8 +3345,11 @@
       <c r="AF26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3374,8 +3446,11 @@
       <c r="AF27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3472,8 +3547,11 @@
       <c r="AF28" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3568,6 +3646,9 @@
         <v>36</v>
       </c>
       <c r="AF29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F30C9-D391-419D-883D-4FA302DF445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CBE7B-2465-46F3-87DE-2CAFBA701CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -682,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="topRight" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1025,9 @@
       <c r="AG3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1126,6 +1129,9 @@
       <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1227,6 +1233,9 @@
       <c r="AG5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AH5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1328,6 +1337,9 @@
       <c r="AG6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1429,6 +1441,9 @@
       <c r="AG7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1530,6 +1545,9 @@
       <c r="AG8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1631,6 +1649,9 @@
       <c r="AG9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1732,6 +1753,9 @@
       <c r="AG10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1833,6 +1857,9 @@
       <c r="AG11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1934,6 +1961,9 @@
       <c r="AG12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2035,6 +2065,9 @@
       <c r="AG13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2136,6 +2169,9 @@
       <c r="AG14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2237,6 +2273,9 @@
       <c r="AG15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AH15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2338,8 +2377,11 @@
       <c r="AG16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2439,8 +2481,11 @@
       <c r="AG17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2540,8 +2585,11 @@
       <c r="AG18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2641,8 +2689,11 @@
       <c r="AG19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2742,8 +2793,11 @@
       <c r="AG20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2843,8 +2897,11 @@
       <c r="AG21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2944,8 +3001,11 @@
       <c r="AG22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3045,8 +3105,11 @@
       <c r="AG23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3146,8 +3209,11 @@
       <c r="AG24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3247,8 +3313,11 @@
       <c r="AG25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3348,8 +3417,11 @@
       <c r="AG26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3449,8 +3521,11 @@
       <c r="AG27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3550,8 +3625,11 @@
       <c r="AG28" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3649,6 +3727,9 @@
         <v>36</v>
       </c>
       <c r="AG29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CBE7B-2465-46F3-87DE-2CAFBA701CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF337E9-4AD8-4578-80CF-778931282842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -682,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH28" sqref="AH28"/>
+      <selection pane="topRight" activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1028,9 @@
       <c r="AH3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1132,6 +1135,9 @@
       <c r="AH4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1236,6 +1242,9 @@
       <c r="AH5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AI5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1340,6 +1349,9 @@
       <c r="AH6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1444,6 +1456,9 @@
       <c r="AH7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1548,6 +1563,9 @@
       <c r="AH8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1652,6 +1670,9 @@
       <c r="AH9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1756,6 +1777,9 @@
       <c r="AH10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1860,6 +1884,9 @@
       <c r="AH11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1964,6 +1991,9 @@
       <c r="AH12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2068,6 +2098,9 @@
       <c r="AH13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2172,6 +2205,9 @@
       <c r="AH14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2276,6 +2312,9 @@
       <c r="AH15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AI15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2380,8 +2419,11 @@
       <c r="AH16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2484,8 +2526,11 @@
       <c r="AH17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2588,8 +2633,11 @@
       <c r="AH18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2692,8 +2740,11 @@
       <c r="AH19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2796,8 +2847,11 @@
       <c r="AH20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2900,8 +2954,11 @@
       <c r="AH21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3004,8 +3061,11 @@
       <c r="AH22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3108,8 +3168,11 @@
       <c r="AH23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3212,8 +3275,11 @@
       <c r="AH24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3316,8 +3382,11 @@
       <c r="AH25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3420,8 +3489,11 @@
       <c r="AH26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3524,8 +3596,11 @@
       <c r="AH27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3628,8 +3703,11 @@
       <c r="AH28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3730,6 +3808,9 @@
         <v>36</v>
       </c>
       <c r="AH29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF337E9-4AD8-4578-80CF-778931282842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA9AC1-2BE9-458C-8DC1-4211B6699BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,11 +268,17 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -322,6 +328,26 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -678,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:BE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI24" sqref="AI24"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK30" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,11 +727,12 @@
     <col min="25" max="27" width="6.7109375" style="2" customWidth="1"/>
     <col min="28" max="29" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="47" width="7.7109375" style="7" customWidth="1"/>
+    <col min="48" max="57" width="7.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -799,20 +826,80 @@
       <c r="AG1" s="1">
         <v>44991</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="6">
         <v>44992</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="6">
         <v>44993</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="6">
         <v>44994</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="6">
         <v>44995</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="6">
+        <v>44998</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>44999</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>45000</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>45001</v>
+      </c>
+      <c r="AP1" s="6">
+        <v>45002</v>
+      </c>
+      <c r="AQ1" s="6">
+        <v>45005</v>
+      </c>
+      <c r="AR1" s="6">
+        <v>45006</v>
+      </c>
+      <c r="AS1" s="6">
+        <v>45007</v>
+      </c>
+      <c r="AT1" s="6">
+        <v>45008</v>
+      </c>
+      <c r="AU1" s="6">
+        <v>45009</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>45012</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>45013</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>45014</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>45015</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>45016</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>45019</v>
+      </c>
+      <c r="BB1" s="5">
+        <v>45020</v>
+      </c>
+      <c r="BC1" s="5">
+        <v>45021</v>
+      </c>
+      <c r="BD1" s="5">
+        <v>45022</v>
+      </c>
+      <c r="BE1" s="5">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -912,20 +999,80 @@
       <c r="AG2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1025,14 +1172,20 @@
       <c r="AG3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1132,14 +1285,20 @@
       <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1239,14 +1398,20 @@
       <c r="AG5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1346,14 +1511,20 @@
       <c r="AG6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1453,14 +1624,20 @@
       <c r="AG7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1560,14 +1737,20 @@
       <c r="AG8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1667,14 +1850,20 @@
       <c r="AG9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1774,14 +1963,20 @@
       <c r="AG10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1881,14 +2076,20 @@
       <c r="AG11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1988,14 +2189,20 @@
       <c r="AG12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2095,14 +2302,20 @@
       <c r="AG13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2202,14 +2415,20 @@
       <c r="AG14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2309,14 +2528,20 @@
       <c r="AG15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK15" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2416,14 +2641,20 @@
       <c r="AG16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2523,14 +2754,20 @@
       <c r="AG17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2630,14 +2867,20 @@
       <c r="AG18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2737,14 +2980,20 @@
       <c r="AG19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2844,14 +3093,20 @@
       <c r="AG20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2951,14 +3206,20 @@
       <c r="AG21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3058,14 +3319,20 @@
       <c r="AG22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3165,14 +3432,20 @@
       <c r="AG23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3272,14 +3545,20 @@
       <c r="AG24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3379,14 +3658,20 @@
       <c r="AG25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3486,14 +3771,20 @@
       <c r="AG26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3593,14 +3884,20 @@
       <c r="AG27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3700,14 +3997,20 @@
       <c r="AG28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3807,50 +4110,76 @@
       <c r="AG29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI29" s="2" t="s">
+      <c r="AH29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK29" s="7" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A1:XFD2 A15:V29 W4:W29 X3:XFD29">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A15:V29 W4:W29 X3:XFD29 A1:XFD2">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:I6 E3 C2:D6 G3:V3 C7:I14 J4:V14 C15:V29">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:S2">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X2">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA9AC1-2BE9-458C-8DC1-4211B6699BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D569C7F-2477-414A-BC74-A7BBFC324C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -708,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK30" sqref="AK30"/>
+      <selection pane="topRight" activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,6 +1184,9 @@
       <c r="AK3" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AL3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1297,6 +1300,9 @@
       <c r="AK4" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AL4" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1410,6 +1416,9 @@
       <c r="AK5" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AL5" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1523,6 +1532,9 @@
       <c r="AK6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL6" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1636,6 +1648,9 @@
       <c r="AK7" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AL7" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1749,6 +1764,9 @@
       <c r="AK8" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL8" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1862,6 +1880,9 @@
       <c r="AK9" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AL9" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1975,6 +1996,9 @@
       <c r="AK10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL10" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2088,6 +2112,9 @@
       <c r="AK11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL11" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2201,6 +2228,9 @@
       <c r="AK12" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL12" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2314,6 +2344,9 @@
       <c r="AK13" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL13" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2427,6 +2460,9 @@
       <c r="AK14" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AL14" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2540,6 +2576,9 @@
       <c r="AK15" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AL15" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2653,8 +2692,11 @@
       <c r="AK16" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2766,8 +2808,11 @@
       <c r="AK17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2879,8 +2924,11 @@
       <c r="AK18" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2992,8 +3040,11 @@
       <c r="AK19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3105,8 +3156,11 @@
       <c r="AK20" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3218,8 +3272,11 @@
       <c r="AK21" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3331,8 +3388,11 @@
       <c r="AK22" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3444,8 +3504,11 @@
       <c r="AK23" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3557,8 +3620,11 @@
       <c r="AK24" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3670,8 +3736,11 @@
       <c r="AK25" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3783,8 +3852,11 @@
       <c r="AK26" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3896,8 +3968,11 @@
       <c r="AK27" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4009,8 +4084,11 @@
       <c r="AK28" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4120,6 +4198,9 @@
         <v>37</v>
       </c>
       <c r="AK29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL29" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D569C7F-2477-414A-BC74-A7BBFC324C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB87FB4-C9CA-45E0-AD4B-290F25FFB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -708,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL23" sqref="AL23"/>
+      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,6 +1187,9 @@
       <c r="AL3" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1303,6 +1306,9 @@
       <c r="AL4" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AM4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1419,6 +1425,9 @@
       <c r="AL5" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AM5" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1535,6 +1544,9 @@
       <c r="AL6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM6" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1651,6 +1663,9 @@
       <c r="AL7" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AM7" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1767,6 +1782,9 @@
       <c r="AL8" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM8" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1883,6 +1901,9 @@
       <c r="AL9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM9" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1999,6 +2020,9 @@
       <c r="AL10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM10" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2115,6 +2139,9 @@
       <c r="AL11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM11" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2231,6 +2258,9 @@
       <c r="AL12" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM12" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2347,6 +2377,9 @@
       <c r="AL13" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM13" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2463,6 +2496,9 @@
       <c r="AL14" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM14" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2579,6 +2615,9 @@
       <c r="AL15" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AM15" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2695,8 +2734,11 @@
       <c r="AL16" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2811,8 +2853,11 @@
       <c r="AL17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2927,8 +2972,11 @@
       <c r="AL18" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3043,8 +3091,11 @@
       <c r="AL19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3159,8 +3210,11 @@
       <c r="AL20" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3275,8 +3329,11 @@
       <c r="AL21" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3391,8 +3448,11 @@
       <c r="AL22" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3507,8 +3567,11 @@
       <c r="AL23" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3623,8 +3686,11 @@
       <c r="AL24" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3739,8 +3805,11 @@
       <c r="AL25" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3855,8 +3924,11 @@
       <c r="AL26" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3971,8 +4043,11 @@
       <c r="AL27" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4087,8 +4162,11 @@
       <c r="AL28" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4201,6 +4279,9 @@
         <v>36</v>
       </c>
       <c r="AL29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM29" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB87FB4-C9CA-45E0-AD4B-290F25FFB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9BB74-4D64-4EB7-A80F-F0AAE56B6973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -707,8 +707,8 @@
   <dimension ref="A1:BE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1190,27 @@
       <c r="AM3" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1309,6 +1330,27 @@
       <c r="AM4" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1428,6 +1470,27 @@
       <c r="AM5" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AN5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1547,6 +1610,27 @@
       <c r="AM6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1666,6 +1750,27 @@
       <c r="AM7" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1785,6 +1890,27 @@
       <c r="AM8" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1904,6 +2030,27 @@
       <c r="AM9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2023,6 +2170,27 @@
       <c r="AM10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2142,6 +2310,27 @@
       <c r="AM11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2261,6 +2450,27 @@
       <c r="AM12" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2380,6 +2590,27 @@
       <c r="AM13" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2499,6 +2730,27 @@
       <c r="AM14" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT14" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2618,6 +2870,27 @@
       <c r="AM15" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AN15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2737,8 +3010,29 @@
       <c r="AM16" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2856,8 +3150,29 @@
       <c r="AM17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2975,8 +3290,29 @@
       <c r="AM18" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3094,8 +3430,29 @@
       <c r="AM19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3213,8 +3570,29 @@
       <c r="AM20" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3332,8 +3710,29 @@
       <c r="AM21" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3451,8 +3850,29 @@
       <c r="AM22" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3570,8 +3990,29 @@
       <c r="AM23" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3689,8 +4130,29 @@
       <c r="AM24" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3808,8 +4270,29 @@
       <c r="AM25" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3927,8 +4410,29 @@
       <c r="AM26" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4046,8 +4550,29 @@
       <c r="AM27" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4165,8 +4690,29 @@
       <c r="AM28" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT28" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4284,14 +4830,35 @@
       <c r="AM29" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AN29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT29" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:I6 E3 A3:D6 G3:W3 A7:I14 J4:V14 A30:XFD1048576 A15:V29 W4:W29 X3:XFD29 A1:XFD2">
+  <conditionalFormatting sqref="A3:D6 A7:I14 A15:V29 A1:XFD2 A30:XFD1048576 E3 E4:I6 G3:W3 J4:V14 W4:W29 X3:XFD29">
     <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:I6 E3 C2:D6 G3:V3 C7:I14 J4:V14 C15:V29">
+  <conditionalFormatting sqref="C2:D6 C7:I14 C15:V29 E3 E4:I6 G3:V3 J4:V14">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9BB74-4D64-4EB7-A80F-F0AAE56B6973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E0F268-3EB6-48C8-9C54-950797F102BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -708,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT28" sqref="AT28"/>
+      <selection pane="topRight" activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1211,12 @@
       <c r="AT3" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1351,6 +1357,12 @@
       <c r="AT4" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1491,6 +1503,12 @@
       <c r="AT5" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AU5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1631,6 +1649,12 @@
       <c r="AT6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1771,6 +1795,12 @@
       <c r="AT7" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1911,6 +1941,12 @@
       <c r="AT8" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2051,6 +2087,12 @@
       <c r="AT9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2191,6 +2233,12 @@
       <c r="AT10" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AU10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2331,6 +2379,12 @@
       <c r="AT11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2471,6 +2525,12 @@
       <c r="AT12" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2611,6 +2671,12 @@
       <c r="AT13" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2751,6 +2817,12 @@
       <c r="AT14" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AU14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2891,6 +2963,12 @@
       <c r="AT15" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="AU15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3031,8 +3109,14 @@
       <c r="AT16" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3171,8 +3255,14 @@
       <c r="AT17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3311,8 +3401,14 @@
       <c r="AT18" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3451,8 +3547,14 @@
       <c r="AT19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3591,8 +3693,14 @@
       <c r="AT20" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3731,8 +3839,14 @@
       <c r="AT21" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3871,8 +3985,14 @@
       <c r="AT22" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4011,8 +4131,14 @@
       <c r="AT23" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4151,8 +4277,14 @@
       <c r="AT24" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4291,8 +4423,14 @@
       <c r="AT25" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4431,8 +4569,14 @@
       <c r="AT26" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4571,8 +4715,14 @@
       <c r="AT27" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4711,8 +4861,14 @@
       <c r="AT28" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4849,6 +5005,12 @@
         <v>36</v>
       </c>
       <c r="AT29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E0F268-3EB6-48C8-9C54-950797F102BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18B027-CA9A-4085-9340-F32434DF9CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -707,8 +707,8 @@
   <dimension ref="A1:BE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV13" sqref="AV13"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1217,9 @@
       <c r="AV3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1363,6 +1366,9 @@
       <c r="AV4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1509,6 +1515,9 @@
       <c r="AV5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AW5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1655,6 +1664,9 @@
       <c r="AV6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1801,6 +1813,9 @@
       <c r="AV7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1947,6 +1962,9 @@
       <c r="AV8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2093,6 +2111,9 @@
       <c r="AV9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2239,6 +2260,9 @@
       <c r="AV10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2385,6 +2409,9 @@
       <c r="AV11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2531,6 +2558,9 @@
       <c r="AV12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2677,6 +2707,9 @@
       <c r="AV13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2823,6 +2856,9 @@
       <c r="AV14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AW14" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2969,6 +3005,9 @@
       <c r="AV15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AW15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3115,8 +3154,11 @@
       <c r="AV16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3261,8 +3303,11 @@
       <c r="AV17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3407,8 +3452,11 @@
       <c r="AV18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3553,8 +3601,11 @@
       <c r="AV19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3699,8 +3750,11 @@
       <c r="AV20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3845,8 +3899,11 @@
       <c r="AV21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3991,8 +4048,11 @@
       <c r="AV22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4137,8 +4197,11 @@
       <c r="AV23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4283,8 +4346,11 @@
       <c r="AV24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4429,8 +4495,11 @@
       <c r="AV25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4575,8 +4644,11 @@
       <c r="AV26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4721,8 +4793,11 @@
       <c r="AV27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4867,8 +4942,11 @@
       <c r="AV28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5011,6 +5089,9 @@
         <v>36</v>
       </c>
       <c r="AV29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18B027-CA9A-4085-9340-F32434DF9CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878ED5CB-7191-4A84-B287-7203EA7D78CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -708,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW29" sqref="AW29"/>
+      <selection pane="topRight" activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1223,9 @@
       <c r="AW3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1369,6 +1375,9 @@
       <c r="AW4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1518,6 +1527,9 @@
       <c r="AW5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AX5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1667,6 +1679,9 @@
       <c r="AW6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1816,6 +1831,9 @@
       <c r="AW7" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AX7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1965,6 +1983,9 @@
       <c r="AW8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2114,6 +2135,9 @@
       <c r="AW9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2263,6 +2287,9 @@
       <c r="AW10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2412,6 +2439,9 @@
       <c r="AW11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2561,6 +2591,9 @@
       <c r="AW12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2710,6 +2743,9 @@
       <c r="AW13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AX13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2859,6 +2895,9 @@
       <c r="AW14" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AX14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2934,7 +2973,7 @@
         <v>55</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>37</v>
@@ -2943,7 +2982,7 @@
         <v>37</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>36</v>
@@ -2952,7 +2991,7 @@
         <v>36</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>37</v>
@@ -2964,7 +3003,7 @@
         <v>36</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ15" s="7" t="s">
         <v>37</v>
@@ -2976,7 +3015,7 @@
         <v>36</v>
       </c>
       <c r="AM15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AN15" s="7" t="s">
         <v>37</v>
@@ -3007,6 +3046,9 @@
       </c>
       <c r="AW15" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
@@ -3157,8 +3199,11 @@
       <c r="AW16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3306,8 +3351,11 @@
       <c r="AW17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3455,8 +3503,11 @@
       <c r="AW18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3604,8 +3655,11 @@
       <c r="AW19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3753,8 +3807,11 @@
       <c r="AW20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3902,8 +3959,11 @@
       <c r="AW21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4111,11 @@
       <c r="AW22" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4200,8 +4263,11 @@
       <c r="AW23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4349,8 +4415,11 @@
       <c r="AW24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4498,8 +4567,11 @@
       <c r="AW25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4647,8 +4719,11 @@
       <c r="AW26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4796,8 +4871,11 @@
       <c r="AW27" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4945,8 +5023,11 @@
       <c r="AW28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5092,6 +5173,9 @@
         <v>36</v>
       </c>
       <c r="AW29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878ED5CB-7191-4A84-B287-7203EA7D78CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E098C4B-8FE6-49E5-9241-F61FBBC4D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -710,8 +710,8 @@
   <dimension ref="A1:BE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX28" sqref="AX28"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1226,12 @@
       <c r="AX3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1378,6 +1384,12 @@
       <c r="AX4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1530,6 +1542,12 @@
       <c r="AX5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AY5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1682,6 +1700,12 @@
       <c r="AX6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1834,6 +1858,12 @@
       <c r="AX7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1986,6 +2016,12 @@
       <c r="AX8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2138,6 +2174,12 @@
       <c r="AX9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2290,6 +2332,12 @@
       <c r="AX10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2442,6 +2490,12 @@
       <c r="AX11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2594,6 +2648,12 @@
       <c r="AX12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2746,6 +2806,12 @@
       <c r="AX13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2898,6 +2964,12 @@
       <c r="AX14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3050,6 +3122,12 @@
       <c r="AX15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AY15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3202,8 +3280,14 @@
       <c r="AX16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3354,8 +3438,14 @@
       <c r="AX17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3506,8 +3596,14 @@
       <c r="AX18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3658,8 +3754,14 @@
       <c r="AX19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3810,8 +3912,14 @@
       <c r="AX20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3962,8 +4070,14 @@
       <c r="AX21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4114,8 +4228,14 @@
       <c r="AX22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4266,8 +4386,14 @@
       <c r="AX23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4418,8 +4544,14 @@
       <c r="AX24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4570,8 +4702,14 @@
       <c r="AX25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4722,8 +4860,14 @@
       <c r="AX26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4874,8 +5018,14 @@
       <c r="AX27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5026,8 +5176,14 @@
       <c r="AX28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5176,6 +5332,12 @@
         <v>36</v>
       </c>
       <c r="AX29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E098C4B-8FE6-49E5-9241-F61FBBC4D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA18C4B-3258-4CB7-96A7-383F5AA2FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -711,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ16" sqref="AZ16"/>
+      <selection pane="topRight" activeCell="BD29" sqref="BD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,6 +1232,15 @@
       <c r="AZ3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1390,6 +1399,15 @@
       <c r="AZ4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1548,6 +1566,15 @@
       <c r="AZ5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BA5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1706,6 +1733,15 @@
       <c r="AZ6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1864,6 +1900,15 @@
       <c r="AZ7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2022,6 +2067,15 @@
       <c r="AZ8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2180,6 +2234,15 @@
       <c r="AZ9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2338,6 +2401,15 @@
       <c r="AZ10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2496,6 +2568,15 @@
       <c r="AZ11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2654,6 +2735,15 @@
       <c r="AZ12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2812,6 +2902,15 @@
       <c r="AZ13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2970,6 +3069,15 @@
       <c r="AZ14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3128,6 +3236,15 @@
       <c r="AZ15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BA15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3286,8 +3403,17 @@
       <c r="AZ16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3444,8 +3570,17 @@
       <c r="AZ17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3602,8 +3737,17 @@
       <c r="AZ18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3760,8 +3904,17 @@
       <c r="AZ19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3918,8 +4071,17 @@
       <c r="AZ20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4076,8 +4238,17 @@
       <c r="AZ21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4234,8 +4405,17 @@
       <c r="AZ22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4392,8 +4572,17 @@
       <c r="AZ23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4550,8 +4739,17 @@
       <c r="AZ24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4708,8 +4906,17 @@
       <c r="AZ25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4866,8 +5073,17 @@
       <c r="AZ26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5024,8 +5240,17 @@
       <c r="AZ27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5182,8 +5407,17 @@
       <c r="AZ28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5338,6 +5572,15 @@
         <v>36</v>
       </c>
       <c r="AZ29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA18C4B-3258-4CB7-96A7-383F5AA2FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3EDA3-A54F-4F0D-8021-9A0D9ED77A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -281,7 +281,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -707,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:BE29"/>
+  <dimension ref="A1:BO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD29" sqref="BD29"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ17" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,10 +742,10 @@
     <col min="30" max="32" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="47" width="7.7109375" style="7" customWidth="1"/>
-    <col min="48" max="57" width="7.7109375" style="2" customWidth="1"/>
+    <col min="48" max="67" width="7.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -901,8 +911,38 @@
       <c r="BE1" s="5">
         <v>45023</v>
       </c>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF1" s="5">
+        <v>45026</v>
+      </c>
+      <c r="BG1" s="5">
+        <v>45027</v>
+      </c>
+      <c r="BH1" s="5">
+        <v>45028</v>
+      </c>
+      <c r="BI1" s="5">
+        <v>45029</v>
+      </c>
+      <c r="BJ1" s="5">
+        <v>45030</v>
+      </c>
+      <c r="BK1" s="5">
+        <v>45033</v>
+      </c>
+      <c r="BL1" s="5">
+        <v>45034</v>
+      </c>
+      <c r="BM1" s="5">
+        <v>45035</v>
+      </c>
+      <c r="BN1" s="5">
+        <v>45036</v>
+      </c>
+      <c r="BO1" s="5">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1114,38 @@
       <c r="BE2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1241,8 +1311,23 @@
       <c r="BC3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1408,8 +1493,23 @@
       <c r="BC4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1575,8 +1675,23 @@
       <c r="BC5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1857,23 @@
       <c r="BC6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1909,8 +2039,23 @@
       <c r="BC7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2076,8 +2221,23 @@
       <c r="BC8" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2243,8 +2403,23 @@
       <c r="BC9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2410,8 +2585,23 @@
       <c r="BC10" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2577,8 +2767,23 @@
       <c r="BC11" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2744,8 +2949,23 @@
       <c r="BC12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2911,8 +3131,23 @@
       <c r="BC13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3078,8 +3313,23 @@
       <c r="BC14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3245,8 +3495,23 @@
       <c r="BC15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BD15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3412,8 +3677,23 @@
       <c r="BC16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3579,8 +3859,23 @@
       <c r="BC17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3746,8 +4041,23 @@
       <c r="BC18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3913,8 +4223,23 @@
       <c r="BC19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4080,8 +4405,23 @@
       <c r="BC20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4247,8 +4587,23 @@
       <c r="BC21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4414,8 +4769,23 @@
       <c r="BC22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4581,8 +4951,23 @@
       <c r="BC23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4748,8 +5133,23 @@
       <c r="BC24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4915,8 +5315,23 @@
       <c r="BC25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5082,8 +5497,23 @@
       <c r="BC26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5249,8 +5679,23 @@
       <c r="BC27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5416,8 +5861,23 @@
       <c r="BC28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5583,65 +6043,90 @@
       <c r="BC29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BD29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:D6 A7:I14 A15:V29 A1:XFD2 A30:XFD1048576 E3 E4:I6 G3:W3 J4:V14 W4:W29 X3:XFD29">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+  <conditionalFormatting sqref="A3:D6 A7:I14 A15:V29 A31:XFD1048576 E3 E4:I6 G3:W3 J4:V14 W4:W29 A1:XFD2 X3:XFD20 X21:BF29 A30:BF30 BG21:XFD30">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 C7:I14 C15:V29 E3 E4:I6 G3:V3 J4:V14">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="BF2:BG2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="BK2:BL2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5896,7 +6381,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6072,7 +6557,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6329,7 +6814,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6502,7 +6987,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6757,7 +7242,7 @@
     <sortCondition ref="A1:A28"/>
   </sortState>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3EDA3-A54F-4F0D-8021-9A0D9ED77A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEA6C1A-A92B-4AF3-95F1-096848BA08A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -286,11 +286,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -336,11 +336,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -721,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ17" sqref="BJ17"/>
+      <selection pane="topRight" activeCell="BI28" sqref="BI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,6 +1326,9 @@
       <c r="BH3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1508,6 +1511,9 @@
       <c r="BH4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1690,6 +1696,9 @@
       <c r="BH5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BI5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1872,6 +1881,9 @@
       <c r="BH6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2054,6 +2066,9 @@
       <c r="BH7" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BI7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2236,6 +2251,9 @@
       <c r="BH8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BI8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2418,6 +2436,9 @@
       <c r="BH9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2600,6 +2621,9 @@
       <c r="BH10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2782,6 +2806,9 @@
       <c r="BH11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2964,6 +2991,9 @@
       <c r="BH12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3146,6 +3176,9 @@
       <c r="BH13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3328,6 +3361,9 @@
       <c r="BH14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BI14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3510,6 +3546,9 @@
       <c r="BH15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BI15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3692,8 +3731,11 @@
       <c r="BH16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3874,8 +3916,11 @@
       <c r="BH17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4056,8 +4101,11 @@
       <c r="BH18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4238,8 +4286,11 @@
       <c r="BH19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4420,8 +4471,11 @@
       <c r="BH20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4602,8 +4656,11 @@
       <c r="BH21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4784,8 +4841,11 @@
       <c r="BH22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4966,8 +5026,11 @@
       <c r="BH23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5148,8 +5211,11 @@
       <c r="BH24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5330,8 +5396,11 @@
       <c r="BH25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5512,8 +5581,11 @@
       <c r="BH26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5694,8 +5766,11 @@
       <c r="BH27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5876,8 +5951,11 @@
       <c r="BH28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6056,6 +6134,9 @@
         <v>36</v>
       </c>
       <c r="BH29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6121,12 +6202,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF2:BG2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2:BL2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6381,7 +6462,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6557,7 +6638,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6814,7 +6895,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6987,7 +7068,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7242,7 +7323,7 @@
     <sortCondition ref="A1:A28"/>
   </sortState>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEA6C1A-A92B-4AF3-95F1-096848BA08A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBFE93C-1EC4-4B10-8481-97FB195E99C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -721,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI28" sqref="BI28"/>
+      <selection pane="topRight" activeCell="BL26" sqref="BL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1329,12 @@
       <c r="BI3" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BK3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1514,6 +1520,12 @@
       <c r="BI4" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BK4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1699,6 +1711,12 @@
       <c r="BI5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BK5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1884,6 +1902,12 @@
       <c r="BI6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2069,6 +2093,12 @@
       <c r="BI7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2254,6 +2284,12 @@
       <c r="BI8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2439,6 +2475,12 @@
       <c r="BI9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2624,6 +2666,12 @@
       <c r="BI10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2809,6 +2857,12 @@
       <c r="BI11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2994,6 +3048,12 @@
       <c r="BI12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3179,6 +3239,12 @@
       <c r="BI13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3364,6 +3430,12 @@
       <c r="BI14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3549,6 +3621,12 @@
       <c r="BI15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BK15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3734,8 +3812,14 @@
       <c r="BI16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3919,8 +4003,14 @@
       <c r="BI17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4104,8 +4194,14 @@
       <c r="BI18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4289,8 +4385,14 @@
       <c r="BI19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4474,8 +4576,14 @@
       <c r="BI20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4659,8 +4767,14 @@
       <c r="BI21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4844,8 +4958,14 @@
       <c r="BI22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5029,8 +5149,14 @@
       <c r="BI23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5214,8 +5340,14 @@
       <c r="BI24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5399,8 +5531,14 @@
       <c r="BI25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5584,8 +5722,14 @@
       <c r="BI26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5769,8 +5913,14 @@
       <c r="BI27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5954,8 +6104,14 @@
       <c r="BI28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6139,14 +6295,20 @@
       <c r="BI29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BK29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:D6 A7:I14 A15:V29 A31:XFD1048576 E3 E4:I6 G3:W3 J4:V14 W4:W29 A1:XFD2 X3:XFD20 X21:BF29 A30:BF30 BG21:XFD30">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:W3 A3:D6 X3:XFD20 E4:I6 J4:V14 W4:W29 A7:I14 A15:V29 X21:BF29 BG21:XFD30 A30:BF30 A31:XFD1048576">
     <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D6 C7:I14 C15:V29 E3 E4:I6 G3:V3 J4:V14">
+  <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBFE93C-1EC4-4B10-8481-97FB195E99C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97438B75-C6B8-46D2-A14A-78744FE2C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="0" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -720,8 +720,8 @@
   <dimension ref="A1:BO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL26" sqref="BL26"/>
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1335,9 @@
       <c r="BL3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1526,6 +1529,9 @@
       <c r="BL4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1717,6 +1723,9 @@
       <c r="BL5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BM5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1908,6 +1917,9 @@
       <c r="BL6" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BM6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2099,6 +2111,9 @@
       <c r="BL7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2290,6 +2305,9 @@
       <c r="BL8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BM8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2481,6 +2499,9 @@
       <c r="BL9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2672,6 +2693,9 @@
       <c r="BL10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2863,6 +2887,9 @@
       <c r="BL11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3054,6 +3081,9 @@
       <c r="BL12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3245,6 +3275,9 @@
       <c r="BL13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3436,6 +3469,9 @@
       <c r="BL14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BM14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3627,6 +3663,9 @@
       <c r="BL15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BM15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3818,8 +3857,11 @@
       <c r="BL16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4009,8 +4051,11 @@
       <c r="BL17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4200,8 +4245,11 @@
       <c r="BL18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4391,8 +4439,11 @@
       <c r="BL19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4582,8 +4633,11 @@
       <c r="BL20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4773,8 +4827,11 @@
       <c r="BL21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4964,8 +5021,11 @@
       <c r="BL22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5155,8 +5215,11 @@
       <c r="BL23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5346,8 +5409,11 @@
       <c r="BL24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5537,8 +5603,11 @@
       <c r="BL25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5728,8 +5797,11 @@
       <c r="BL26" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5919,8 +5991,11 @@
       <c r="BL27" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6110,8 +6185,11 @@
       <c r="BL28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97438B75-C6B8-46D2-A14A-78744FE2C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEDF913-403A-401B-B1F4-B33B561405EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="0" windowWidth="20250" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -721,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM1" sqref="BM1"/>
+      <selection pane="topRight" activeCell="BN28" sqref="BN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1338,9 @@
       <c r="BM3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1532,6 +1535,9 @@
       <c r="BM4" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1726,6 +1732,9 @@
       <c r="BM5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BN5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1920,6 +1929,9 @@
       <c r="BM6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2114,6 +2126,9 @@
       <c r="BM7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2308,6 +2323,9 @@
       <c r="BM8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2502,6 +2520,9 @@
       <c r="BM9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2696,6 +2717,9 @@
       <c r="BM10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2890,6 +2914,9 @@
       <c r="BM11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3084,6 +3111,9 @@
       <c r="BM12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3278,6 +3308,9 @@
       <c r="BM13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3472,6 +3505,9 @@
       <c r="BM14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3666,6 +3702,9 @@
       <c r="BM15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BN15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3860,8 +3899,11 @@
       <c r="BM16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4054,8 +4096,11 @@
       <c r="BM17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4248,8 +4293,11 @@
       <c r="BM18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4442,8 +4490,11 @@
       <c r="BM19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4636,8 +4687,11 @@
       <c r="BM20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4830,8 +4884,11 @@
       <c r="BM21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5024,8 +5081,11 @@
       <c r="BM22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5218,8 +5278,11 @@
       <c r="BM23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5412,8 +5475,11 @@
       <c r="BM24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5606,8 +5672,11 @@
       <c r="BM25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5800,8 +5869,11 @@
       <c r="BM26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5994,8 +6066,11 @@
       <c r="BM27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6188,8 +6263,11 @@
       <c r="BM28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6377,6 +6455,12 @@
         <v>36</v>
       </c>
       <c r="BL29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEDF913-403A-401B-B1F4-B33B561405EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD3367-4BF3-4CBF-8C2A-8244B8A9924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="56">
   <si>
     <t>Aluno</t>
   </si>
@@ -281,7 +281,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -331,6 +331,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -717,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:BO29"/>
+  <dimension ref="A1:CD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN28" sqref="BN28"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP10" sqref="BP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,10 +757,10 @@
     <col min="30" max="32" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="47" width="7.7109375" style="7" customWidth="1"/>
-    <col min="48" max="67" width="7.7109375" style="2" customWidth="1"/>
+    <col min="48" max="82" width="7.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>44949</v>
       </c>
@@ -941,8 +956,53 @@
       <c r="BO1" s="5">
         <v>45037</v>
       </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP1" s="5">
+        <v>45040</v>
+      </c>
+      <c r="BQ1" s="5">
+        <v>45041</v>
+      </c>
+      <c r="BR1" s="5">
+        <v>45042</v>
+      </c>
+      <c r="BS1" s="5">
+        <v>45043</v>
+      </c>
+      <c r="BT1" s="5">
+        <v>45044</v>
+      </c>
+      <c r="BU1" s="5">
+        <v>45047</v>
+      </c>
+      <c r="BV1" s="5">
+        <v>45048</v>
+      </c>
+      <c r="BW1" s="5">
+        <v>45049</v>
+      </c>
+      <c r="BX1" s="5">
+        <v>45050</v>
+      </c>
+      <c r="BY1" s="5">
+        <v>45051</v>
+      </c>
+      <c r="BZ1" s="5">
+        <v>45054</v>
+      </c>
+      <c r="CA1" s="5">
+        <v>45055</v>
+      </c>
+      <c r="CB1" s="5">
+        <v>45056</v>
+      </c>
+      <c r="CC1" s="5">
+        <v>45057</v>
+      </c>
+      <c r="CD1" s="5">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1204,53 @@
       <c r="BO2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1329,6 +1434,9 @@
       <c r="BI3" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BJ3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1341,8 +1449,14 @@
       <c r="BN3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1526,6 +1640,9 @@
       <c r="BI4" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BJ4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1538,8 +1655,14 @@
       <c r="BN4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1723,6 +1846,9 @@
       <c r="BI5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BJ5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1735,8 +1861,14 @@
       <c r="BN5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1920,6 +2052,9 @@
       <c r="BI6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ6" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1932,8 +2067,14 @@
       <c r="BN6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2117,6 +2258,9 @@
       <c r="BI7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ7" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2129,8 +2273,14 @@
       <c r="BN7" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2314,6 +2464,9 @@
       <c r="BI8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2326,8 +2479,14 @@
       <c r="BN8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2511,6 +2670,9 @@
       <c r="BI9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2523,8 +2685,14 @@
       <c r="BN9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2708,6 +2876,9 @@
       <c r="BI10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ10" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2720,8 +2891,14 @@
       <c r="BN10" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2905,6 +3082,9 @@
       <c r="BI11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ11" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2917,8 +3097,14 @@
       <c r="BN11" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3102,6 +3288,9 @@
       <c r="BI12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ12" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK12" s="2" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3303,14 @@
       <c r="BN12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3299,6 +3494,9 @@
       <c r="BI13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ13" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3311,8 +3509,14 @@
       <c r="BN13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3496,6 +3700,9 @@
       <c r="BI14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK14" s="2" t="s">
         <v>36</v>
       </c>
@@ -3508,8 +3715,14 @@
       <c r="BN14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3693,6 +3906,9 @@
       <c r="BI15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BJ15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK15" s="2" t="s">
         <v>36</v>
       </c>
@@ -3705,8 +3921,14 @@
       <c r="BN15" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BO15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3890,6 +4112,9 @@
       <c r="BI16" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK16" s="2" t="s">
         <v>36</v>
       </c>
@@ -3902,8 +4127,14 @@
       <c r="BN16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4087,6 +4318,9 @@
       <c r="BI17" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK17" s="2" t="s">
         <v>36</v>
       </c>
@@ -4099,8 +4333,14 @@
       <c r="BN17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4284,6 +4524,9 @@
       <c r="BI18" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK18" s="2" t="s">
         <v>37</v>
       </c>
@@ -4296,8 +4539,14 @@
       <c r="BN18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4481,6 +4730,9 @@
       <c r="BI19" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK19" s="2" t="s">
         <v>36</v>
       </c>
@@ -4493,8 +4745,14 @@
       <c r="BN19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4678,6 +4936,9 @@
       <c r="BI20" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BJ20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK20" s="2" t="s">
         <v>37</v>
       </c>
@@ -4690,8 +4951,14 @@
       <c r="BN20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4875,6 +5142,9 @@
       <c r="BI21" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK21" s="2" t="s">
         <v>36</v>
       </c>
@@ -4887,8 +5157,14 @@
       <c r="BN21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5072,6 +5348,9 @@
       <c r="BI22" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK22" s="2" t="s">
         <v>37</v>
       </c>
@@ -5084,8 +5363,14 @@
       <c r="BN22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5269,6 +5554,9 @@
       <c r="BI23" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK23" s="2" t="s">
         <v>36</v>
       </c>
@@ -5281,8 +5569,14 @@
       <c r="BN23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5466,6 +5760,9 @@
       <c r="BI24" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK24" s="2" t="s">
         <v>36</v>
       </c>
@@ -5478,8 +5775,14 @@
       <c r="BN24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5663,6 +5966,9 @@
       <c r="BI25" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ25" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK25" s="2" t="s">
         <v>36</v>
       </c>
@@ -5675,8 +5981,14 @@
       <c r="BN25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5860,6 +6172,9 @@
       <c r="BI26" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ26" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK26" s="2" t="s">
         <v>36</v>
       </c>
@@ -5872,8 +6187,14 @@
       <c r="BN26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6057,6 +6378,9 @@
       <c r="BI27" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ27" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK27" s="2" t="s">
         <v>36</v>
       </c>
@@ -6069,8 +6393,14 @@
       <c r="BN27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6254,6 +6584,9 @@
       <c r="BI28" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ28" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK28" s="2" t="s">
         <v>36</v>
       </c>
@@ -6266,8 +6599,14 @@
       <c r="BN28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6451,6 +6790,9 @@
       <c r="BI29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BJ29" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BK29" s="2" t="s">
         <v>36</v>
       </c>
@@ -6463,74 +6805,95 @@
       <c r="BN29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BO29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:W3 A3:D6 X3:XFD20 E4:I6 J4:V14 W4:W29 A7:I14 A15:V29 X21:BF29 BG21:XFD30 A30:BF30 A31:XFD1048576">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:W3 A3:D6 X3:XFD29 E4:I6 J4:V14 W4:W29 A7:I14 A15:V29 A30:XFD1048576">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D6 E3 G3:V3 E4:I6 J4:V14 C7:I14 C15:V29">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:S2">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X2">
     <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
+  <conditionalFormatting sqref="AB2:AC2">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="AG2:AH2">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2">
+  <conditionalFormatting sqref="AL2:AM2">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2">
+  <conditionalFormatting sqref="AQ2:AR2">
     <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH2">
+  <conditionalFormatting sqref="AV2:AW2">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM2">
+  <conditionalFormatting sqref="BA2:BB2">
     <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AR2">
+  <conditionalFormatting sqref="BF2:BG2">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AW2">
+  <conditionalFormatting sqref="BK2:BL2">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BB2">
+  <conditionalFormatting sqref="BP2:BQ2">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BG2">
+  <conditionalFormatting sqref="BU2:BV2">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BL2">
+  <conditionalFormatting sqref="BZ2:CA2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD3367-4BF3-4CBF-8C2A-8244B8A9924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81EA1F-285A-4148-B4F2-A014E597B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="57">
   <si>
     <t>Aluno</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP10" sqref="BP10"/>
+      <selection pane="topRight" activeCell="BV15" sqref="BV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,6 +1458,12 @@
       <c r="BP3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1661,6 +1670,12 @@
       <c r="BP4" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BQ4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1867,6 +1882,12 @@
       <c r="BP5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BQ5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2073,6 +2094,12 @@
       <c r="BP6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2279,6 +2306,12 @@
       <c r="BP7" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BQ7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2485,6 +2518,12 @@
       <c r="BP8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR8" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2691,6 +2730,12 @@
       <c r="BP9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2897,6 +2942,12 @@
       <c r="BP10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3103,6 +3154,12 @@
       <c r="BP11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3309,6 +3366,12 @@
       <c r="BP12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3515,6 +3578,12 @@
       <c r="BP13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3721,6 +3790,12 @@
       <c r="BP14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR14" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3927,6 +4002,12 @@
       <c r="BP15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BQ15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR15" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4133,8 +4214,14 @@
       <c r="BP16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4339,8 +4426,14 @@
       <c r="BP17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4545,8 +4638,14 @@
       <c r="BP18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4751,8 +4850,14 @@
       <c r="BP19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4957,8 +5062,14 @@
       <c r="BP20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5163,8 +5274,14 @@
       <c r="BP21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5369,8 +5486,14 @@
       <c r="BP22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5575,8 +5698,14 @@
       <c r="BP23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5781,8 +5910,14 @@
       <c r="BP24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5987,8 +6122,14 @@
       <c r="BP25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6193,8 +6334,14 @@
       <c r="BP26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6399,8 +6546,14 @@
       <c r="BP27" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6605,8 +6758,14 @@
       <c r="BP28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6811,9 +6970,15 @@
       <c r="BP29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="BQ29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR29" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:W3 A3:D6 X3:XFD29 E4:I6 J4:V14 W4:W29 A7:I14 A15:V29 A30:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD2 E3 G3:W3 A3:D6 E4:I6 J4:V14 W4:W29 A7:I14 A15:V29 A30:XFD1048576 X3:XFD29">
     <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/chamada.xlsx
+++ b/3des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81EA1F-285A-4148-B4F2-A014E597B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D9D92-D616-455C-87C8-DE3248873DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="58">
   <si>
     <t>Aluno</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>F/2</t>
   </si>
 </sst>
 </file>
@@ -735,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
-  <dimension ref="A1:CD29"/>
+  <dimension ref="A1:CD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV15" sqref="BV15"/>
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BX26" sqref="BX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1467,21 @@
       <c r="BR3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1676,6 +1694,21 @@
       <c r="BR4" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BS4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1888,6 +1921,21 @@
       <c r="BR5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BS5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2100,6 +2148,21 @@
       <c r="BR6" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2312,6 +2375,21 @@
       <c r="BR7" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BS7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2524,6 +2602,21 @@
       <c r="BR8" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2736,6 +2829,21 @@
       <c r="BR9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BS9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2948,6 +3056,21 @@
       <c r="BR10" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX10" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3160,6 +3283,21 @@
       <c r="BR11" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3372,6 +3510,21 @@
       <c r="BR12" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BX12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3584,6 +3737,21 @@
       <c r="BR13" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3796,6 +3964,21 @@
       <c r="BR14" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4008,6 +4191,21 @@
       <c r="BR15" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4220,8 +4418,23 @@
       <c r="BR16" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4432,8 +4645,23 @@
       <c r="BR17" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4644,8 +4872,23 @@
       <c r="BR18" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BX18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4856,8 +5099,23 @@
       <c r="BR19" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5068,8 +5326,23 @@
       <c r="BR20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5280,8 +5553,23 @@
       <c r="BR21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5492,8 +5780,23 @@
       <c r="BR22" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5704,8 +6007,23 @@
       <c r="BR23" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5916,8 +6234,23 @@
       <c r="BR24" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6128,8 +6461,23 @@
       <c r="BR25" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6340,8 +6688,23 @@
       <c r="BR26" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6552,8 +6915,23 @@
       <c r="BR27" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6764,8 +7142,23 @@
       <c r="BR28" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6976,9 +7369,29 @@
       <c r="BR29" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BS29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BU30" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 E3 G3:W3 A3:D6 E4:I6 J4:V14 W4:W29 A7:I14 A15:V29 A30:XFD1048576 X3:XFD29">
+  <conditionalFormatting sqref="A1:XFD2 E3 A3:D6 G3:XFD3 E4:I6 J4:V14 A7:I14 A15:V29 A31:XFD1048576 A30:BT30 W4:BT29 BU4:XFD30">
     <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
